--- a/DesignDocuments/游戏开发进度计划表.xlsx
+++ b/DesignDocuments/游戏开发进度计划表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>8月3日之前</t>
   </si>
@@ -22,7 +22,10 @@
     <t>8月17日之前</t>
   </si>
   <si>
-    <t>8月31之前</t>
+    <t>8月31日之前</t>
+  </si>
+  <si>
+    <t>9月14日之前</t>
   </si>
   <si>
     <t>程序实现</t>
@@ -33,25 +36,64 @@
   <si>
     <t>1)可简单地走一次游戏流程，从开始界面到结束界面
 2）游戏故事导入
-3)道具与机关的功能实现
-4）游戏模式扩展与游戏模式选择的功能</t>
+3)暗箭、地刺陷阱功能实现
+4)补血功能实现(虎符碎片、虎符)
+5)地板上的踏板机关（主动触发一系列机关用）
+6）机关门、移动平台、旋转平台（被触发机关）
+7）细节的特效添加</t>
+  </si>
+  <si>
+    <t>1)可以完整走一次游戏流程，能打通过关卡1
+2)新兵种添加（矛兵、工程兵）</t>
+  </si>
+  <si>
+    <t>复赛提交截止日</t>
   </si>
   <si>
     <t>备注：</t>
   </si>
   <si>
-    <t>详细内容在Demo流程图和行动逻辑图里</t>
+    <t>完成的就用蓝色字体标注
+不能按期完成用红色字体标注</t>
+  </si>
+  <si>
+    <t>详细内容在Demo流程图、行动逻辑图、
+场景互动元素表、兵种设定图表里</t>
   </si>
   <si>
     <t>美术素材</t>
   </si>
   <si>
-    <t>1）游戏开始界面背景1280*720
+    <r>
+      <t xml:space="preserve">1）游戏开始界面背景1280*720
 2）用于官网展示的作品封面图（378*208/png）
-3）地板、墙体素材</t>
-  </si>
-  <si>
-    <t>人物、场景素材更新</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3）地板、墙体素材</t>
+    </r>
+  </si>
+  <si>
+    <t>★人物、场景素材完善
+关卡一地图设计：
+1)关卡1地板、墙体
+2)鼎（兵种获取用）
+3)暗箭、地刺
+4)触发机关的踏板、拉杆
+5)机关门、移动平台、旋转平台
+6)特效素材/动画</t>
+  </si>
+  <si>
+    <t>新兵种人物设计动作设计
+关卡二地图设计
+Boss设计</t>
   </si>
   <si>
     <t>音效/动画</t>
@@ -61,7 +103,9 @@
   </si>
   <si>
     <t>1）动画帧时间调整
-2）瑕疵音效音频修改更新</t>
+2）瑕疵音效音频修改更新
+3)新音效添加
+4)场景音频音效的音量调节</t>
   </si>
 </sst>
 </file>
@@ -69,12 +113,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +144,13 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -113,14 +164,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -142,6 +185,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -149,32 +200,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,8 +236,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,6 +297,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -231,58 +312,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -300,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,20 +546,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,17 +603,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,170 +641,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,13 +807,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1123,16 +1176,16 @@
   <sheetPr/>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="40.225" style="1" customWidth="1"/>
     <col min="2" max="2" width="96.3583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="92.95" style="1" customWidth="1"/>
-    <col min="4" max="4" width="69.5416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="99.0583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.45" style="1" customWidth="1"/>
     <col min="5" max="5" width="68" style="1" customWidth="1"/>
     <col min="6" max="6" width="73.8583333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="65.45" style="1" customWidth="1"/>
@@ -1156,217 +1209,243 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="10"/>
+      <c r="K1" s="11"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="10"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" ht="89.1" customHeight="1" spans="1:16">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="11"/>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" ht="75.95" customHeight="1" spans="1:16">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="12"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" ht="78.95" customHeight="1" spans="1:16">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="12"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" ht="66.95" customHeight="1" spans="1:16">
       <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" customHeight="1" spans="1:16">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" ht="68.1" customHeight="1" spans="1:16">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="12"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" ht="219" customHeight="1" spans="1:16">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="12"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" ht="64" customHeight="1" spans="1:16">
       <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" ht="68.1" customHeight="1" spans="1:16">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="1:16">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="12"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" ht="125" customHeight="1" spans="1:16">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="12"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" ht="132" customHeight="1" spans="1:7">
       <c r="A13" s="2"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" ht="138.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="42">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A12"/>
@@ -1379,6 +1458,9 @@
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E10:E12"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H10:H12"/>

--- a/DesignDocuments/游戏开发进度计划表.xlsx
+++ b/DesignDocuments/游戏开发进度计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="18480" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>8月3日之前</t>
   </si>
@@ -37,14 +37,16 @@
     <t>1)可简单地走一次游戏流程，从开始界面到结束界面
 2）游戏故事导入
 3)暗箭、地刺陷阱功能实现
-4)补血功能实现(虎符碎片、虎符)
+4)血量调节功能实现(虎符碎片、虎符)
 5)地板上的踏板机关（主动触发一系列机关用）
 6）机关门、移动平台、旋转平台（被触发机关）
 7）细节的特效添加</t>
   </si>
   <si>
-    <t>1)可以完整走一次游戏流程，能打通过关卡1
-2)新兵种添加（矛兵、工程兵）</t>
+    <t>1)可以完整走一次游戏流程，能打通过关卡
+2)新兵种添加（矛兵）
+3)BOSS功能（用于体积变大的敌人，通关出口）
+4)添加无尽模式</t>
   </si>
   <si>
     <t>复赛提交截止日</t>
@@ -53,8 +55,8 @@
     <t>备注：</t>
   </si>
   <si>
-    <t>完成的就用蓝色字体标注
-不能按期完成用红色字体标注</t>
+    <t>完成：蓝色字体标注
+不能按期完成：红色字体标注</t>
   </si>
   <si>
     <t>详细内容在Demo流程图、行动逻辑图、
@@ -65,6 +67,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1）游戏开始界面背景1280*720
 2）用于官网展示的作品封面图（378*208/png）
 </t>
@@ -81,25 +90,119 @@
     </r>
   </si>
   <si>
-    <t>★人物、场景素材完善
+    <r>
+      <t>★人物、场景素材完善</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 关卡一地图设计：
-1)关卡1地板、墙体
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1)关卡1地板、墙体</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 2)鼎（兵种获取用）
 3)暗箭、地刺
 4)触发机关的踏板、拉杆
 5)机关门、移动平台、旋转平台
 6)特效素材/动画</t>
-  </si>
-  <si>
-    <t>新兵种人物设计动作设计
-关卡二地图设计
-Boss设计</t>
+    </r>
+  </si>
+  <si>
+    <t>★人物、场景素材完善
+新兵种人物设计、动作设计</t>
   </si>
   <si>
     <t>音效/动画</t>
   </si>
   <si>
     <t>1）动画帧时间调整</t>
+  </si>
+  <si>
+    <r>
+      <t>1）动画帧时间调整</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2）瑕疵音效音频修改更新</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3)新音效添加</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4)场景音频音效的音量调节</t>
+    </r>
   </si>
   <si>
     <t>1）动画帧时间调整
@@ -114,11 +217,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +259,12 @@
     </font>
     <font>
       <b/>
+      <sz val="28"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="36"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -171,6 +280,13 @@
     </font>
     <font>
       <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="28"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -192,6 +308,27 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -200,14 +337,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,53 +374,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +398,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -328,11 +437,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -350,13 +459,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,7 +597,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,151 +615,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,10 +655,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -573,8 +680,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,7 +701,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,15 +736,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -647,149 +756,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -809,7 +918,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -818,16 +930,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,17 +1291,17 @@
   <sheetPr/>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="40.225" style="1" customWidth="1"/>
-    <col min="2" max="2" width="96.3583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="99.0583333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="75.45" style="1" customWidth="1"/>
-    <col min="5" max="5" width="68" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89" style="1" customWidth="1"/>
+    <col min="4" max="4" width="63" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="73.8583333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="65.45" style="1" customWidth="1"/>
     <col min="8" max="8" width="64.5416666666667" style="1" customWidth="1"/>
@@ -1215,12 +1330,12 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="11"/>
+      <c r="K1" s="13"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="11"/>
+      <c r="P1" s="13"/>
     </row>
     <row r="2" ht="89.1" customHeight="1" spans="1:16">
       <c r="A2" s="4" t="s">
@@ -1235,72 +1350,72 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="12"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="12"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" ht="75.95" customHeight="1" spans="1:16">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="13"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="7"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="15"/>
     </row>
     <row r="4" ht="78.95" customHeight="1" spans="1:16">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="13"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="7"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" ht="66.95" customHeight="1" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" customHeight="1" spans="1:16">
       <c r="A6" s="4" t="s">
@@ -1309,74 +1424,74 @@
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="7"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="12"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="12"/>
+      <c r="P6" s="14"/>
     </row>
     <row r="7" ht="68.1" customHeight="1" spans="1:16">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="13"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="7"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" ht="219" customHeight="1" spans="1:16">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="13"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="7"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" ht="64" customHeight="1" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" ht="68.1" customHeight="1" spans="1:16">
       <c r="A10" s="4" t="s">
@@ -1385,67 +1500,67 @@
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="E10" s="7"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="12"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="12"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" customHeight="1" spans="1:16">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="13"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="7"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" ht="125" customHeight="1" spans="1:16">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="13"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="7"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" ht="132" customHeight="1" spans="1:7">
       <c r="A13" s="2"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" ht="138.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="40">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A12"/>
@@ -1458,9 +1573,7 @@
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="E2:E12"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H10:H12"/>

--- a/DesignDocuments/游戏开发进度计划表.xlsx
+++ b/DesignDocuments/游戏开发进度计划表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="12210"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>8月3日之前</t>
   </si>
@@ -37,16 +37,14 @@
     <t>1)可简单地走一次游戏流程，从开始界面到结束界面
 2）游戏故事导入
 3)暗箭、地刺陷阱功能实现
-4)血量调节功能实现(虎符碎片、虎符)
+4)补血功能实现(虎符碎片、虎符)
 5)地板上的踏板机关（主动触发一系列机关用）
 6）机关门、移动平台、旋转平台（被触发机关）
 7）细节的特效添加</t>
   </si>
   <si>
-    <t>1)可以完整走一次游戏流程，能打通过关卡
-2)新兵种添加（矛兵）
-3)BOSS功能（用于体积变大的敌人，通关出口）
-4)添加无尽模式</t>
+    <t>1)可以完整走一次游戏流程，能打通过关卡1
+2)新兵种添加（矛兵、工程兵）</t>
   </si>
   <si>
     <t>复赛提交截止日</t>
@@ -55,8 +53,8 @@
     <t>备注：</t>
   </si>
   <si>
-    <t>完成：蓝色字体标注
-不能按期完成：红色字体标注</t>
+    <t>完成的就用蓝色字体标注
+不能按期完成用红色字体标注</t>
   </si>
   <si>
     <t>详细内容在Demo流程图、行动逻辑图、
@@ -67,13 +65,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">1）游戏开始界面背景1280*720
 2）用于官网展示的作品封面图（378*208/png）
 </t>
@@ -90,119 +81,25 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>★人物、场景素材完善</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>★人物、场景素材完善
 关卡一地图设计：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1)关卡1地板、墙体</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+1)关卡1地板、墙体
 2)鼎（兵种获取用）
 3)暗箭、地刺
 4)触发机关的踏板、拉杆
 5)机关门、移动平台、旋转平台
 6)特效素材/动画</t>
-    </r>
-  </si>
-  <si>
-    <t>★人物、场景素材完善
-新兵种人物设计、动作设计</t>
+  </si>
+  <si>
+    <t>新兵种人物设计动作设计
+关卡二地图设计
+Boss设计</t>
   </si>
   <si>
     <t>音效/动画</t>
   </si>
   <si>
     <t>1）动画帧时间调整</t>
-  </si>
-  <si>
-    <r>
-      <t>1）动画帧时间调整</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2）瑕疵音效音频修改更新</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3)新音效添加</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4)场景音频音效的音量调节</t>
-    </r>
   </si>
   <si>
     <t>1）动画帧时间调整
@@ -217,11 +114,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,12 +156,6 @@
     </font>
     <font>
       <b/>
-      <sz val="28"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="36"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -280,169 +171,169 @@
     </font>
     <font>
       <b/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -459,181 +350,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,8 +546,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -680,19 +573,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,7 +583,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,6 +618,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -756,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,16 +659,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,119 +677,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -918,10 +809,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -930,19 +818,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,17 +1176,17 @@
   <sheetPr/>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="58" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89" style="1" customWidth="1"/>
-    <col min="4" max="4" width="63" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="96.3583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="99.0583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="75.45" style="1" customWidth="1"/>
+    <col min="5" max="5" width="68" style="1" customWidth="1"/>
     <col min="6" max="6" width="73.8583333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="65.45" style="1" customWidth="1"/>
     <col min="8" max="8" width="64.5416666666667" style="1" customWidth="1"/>
@@ -1330,12 +1215,12 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="13"/>
+      <c r="K1" s="11"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="13"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" ht="89.1" customHeight="1" spans="1:16">
       <c r="A2" s="4" t="s">
@@ -1350,72 +1235,72 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="14"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="14"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" ht="75.95" customHeight="1" spans="1:16">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="7"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="15"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" ht="78.95" customHeight="1" spans="1:16">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="7"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="15"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" ht="66.95" customHeight="1" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="7"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
     <row r="6" customHeight="1" spans="1:16">
       <c r="A6" s="4" t="s">
@@ -1424,74 +1309,74 @@
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="12"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="14"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" ht="68.1" customHeight="1" spans="1:16">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="7"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="15"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" ht="219" customHeight="1" spans="1:16">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="7"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="15"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" ht="64" customHeight="1" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="7"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" ht="68.1" customHeight="1" spans="1:16">
       <c r="A10" s="4" t="s">
@@ -1500,67 +1385,67 @@
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="14"/>
+      <c r="K10" s="12"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="1:16">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="7"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="15"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="13"/>
     </row>
     <row r="12" ht="125" customHeight="1" spans="1:16">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="15"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" ht="132" customHeight="1" spans="1:7">
       <c r="A13" s="2"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" ht="138.95" customHeight="1"/>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="42">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A12"/>
@@ -1573,7 +1458,9 @@
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E2:E12"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E10:E12"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H10:H12"/>
